--- a/description/matrix/04_similarity_matrix_cosine_sbert.xlsx
+++ b/description/matrix/04_similarity_matrix_cosine_sbert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podip\Desktop\BCE\0_BSC_SZAKDOLGOZAT\Text_mining\done\done_done\figures\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podip\Desktop\BCE\0_BSC_SZAKDOLGOZAT\Text_mining\done\done_done\done_done_done\Matrix scriptek\matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D203E3-2A65-4D03-8F1E-244CB895E06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50702106-006C-40A4-AD79-2F4E5DC76FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2917,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A736" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -26903,9 +26903,11 @@
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
         <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color rgb="FFBF8F55"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="6" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
